--- a/covid19at-icu.xlsx
+++ b/covid19at-icu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walterra/dev/covid-19-at-hosp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAED9CE2-01F7-9F49-8F9E-A1F96D820EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2984E-6754-A048-B070-AE3D31D8B0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{3DE47F86-CDC2-8C43-916C-74C1977E2F3E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{3DE47F86-CDC2-8C43-916C-74C1977E2F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 AT ICU" sheetId="1" r:id="rId1"/>
+    <sheet name="COVID-19 KB ICU" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'COVID-19 AT ICU'!$A$2:$A$274</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Datum</t>
   </si>
@@ -3439,6 +3440,2447 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>COVID-19</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> AT ICU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COVID-19 KB ICU'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modell Kein Lockdown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'COVID-19 KB ICU'!$A$2:$A$147</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COVID-19 KB ICU'!$F$2:$F$147</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>12.924442311545743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.749493010496128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.049539100451026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.011399182228205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2930901656620044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3837183324200026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1433803022000024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5930730020000015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1746118200000017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.540556200000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9341420000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4992200000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89B6-654F-90BE-6588BE7EE947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COVID-19 KB ICU'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modell Lockdown Soft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'COVID-19 KB ICU'!$A$2:$A$147</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COVID-19 KB ICU'!$G$2:$G$147</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>8.2933620000000037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0984400000000036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2335180000000019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8985960000000022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7636740000000026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3287520000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4638300000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1989080000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9839859999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.479064000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9341420000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4992200000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-89B6-654F-90BE-6588BE7EE947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COVID-19 KB ICU'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modell Lockdown Hard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'COVID-19 KB ICU'!$A$2:$A$147</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COVID-19 KB ICU'!$H$2:$H$147</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>5.7487496063114536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.95433956256828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4661061806314217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4814024229238019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6672871365820017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5204923739800007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9073870822000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8539367580000015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8056586200000018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.417571800000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9341420000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4992200000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-89B6-654F-90BE-6588BE7EE947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="892188351"/>
+        <c:axId val="892189983"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="892188351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892189983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="892189983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892188351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3479,7 +5921,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4036,6 +7034,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3544E3-FD65-654E-838A-22B40285140C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4335,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E592A-22E9-A649-A0F5-1137147FA926}">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10607,4 +13648,6301 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43CBE36-69B1-E244-962D-D93B6EF44700}">
+  <dimension ref="A1:J274"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B2" s="2">
+        <f>B3*(1+$J$43)</f>
+        <v>256.8681798833415</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C15" si="0">C3</f>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D15" si="1">D3*0.9</f>
+        <v>12.660698672990584</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F22" si="2">SUM(B7:B20)*0.01</f>
+        <v>12.924442311545743</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(C7:C20)*0.01</f>
+        <v>8.2933620000000037</v>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM(D7:D20)*0.01</f>
+        <v>5.7487496063114536</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I50" si="3">F2-F3</f>
+        <v>1.1749493010496153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B4*(1+$J$43)</f>
+        <v>233.51652716667408</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="1"/>
+        <v>14.067442969989537</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="2"/>
+        <v>11.749493010496128</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:H18" si="4">SUM(C8:C21)*0.01</f>
+        <v>8.0984400000000036</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="4"/>
+        <v>5.95433956256828</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="3"/>
+        <v>0.69995391004510132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B5*(1+$J$43)</f>
+        <v>212.28775196970369</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>15.630492188877264</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>11.049539100451026</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2335180000000019</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="4"/>
+        <v>6.4661061806314217</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0381399182228215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B5" s="2">
+        <f>B6*(1+$J$43)</f>
+        <v>192.98886542700333</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>17.367213543196961</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>10.011399182228205</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="4"/>
+        <v>7.8985960000000022</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="4"/>
+        <v>6.4814024229238019</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7183090165662005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B7*(1+$J$43)</f>
+        <v>175.44442311545757</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>19.29690393688551</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2930901656620044</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>7.7636740000000026</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>6.6672871365820017</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90937183324200177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B8*(1+$J$43)</f>
+        <v>159.49493010496141</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>21.441004374317234</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3837183324200026</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="4"/>
+        <v>7.3287520000000006</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>6.5204923739800007</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24033803022000022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B9*(1+$J$43)</f>
+        <v>144.99539100451037</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>23.823338193685817</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>8.1433803022000024</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="4"/>
+        <v>7.4638300000000006</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>6.9073870822000005</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55030730020000096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B10*(1+$J$43)</f>
+        <v>131.81399182228213</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>26.470375770762018</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5930730020000015</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>7.1989080000000012</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>6.8539367580000015</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41846118199999971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B11*(1+$J$43)</f>
+        <v>119.8309016566201</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>29.411528634180019</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1746118200000017</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="4"/>
+        <v>6.9839859999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>6.8056586200000018</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63405562000000071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B12*(1+$J$43)</f>
+        <v>108.93718332420008</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>32.679476260200019</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>6.540556200000001</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="4"/>
+        <v>6.479064000000001</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>6.417571800000001</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60641420000000057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B13*(1+$J$43)</f>
+        <v>99.033803022000058</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>36.310529178000017</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9341420000000005</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="4"/>
+        <v>5.9341420000000005</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>5.9341420000000005</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.43492200000000025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B13" s="2">
+        <f>B14*(1+$J$43)</f>
+        <v>90.03073002000005</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>40.345032420000017</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>5.4992200000000002</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="4"/>
+        <v>5.4992200000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>5.4992200000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51902000000000026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B14" s="2">
+        <f>B15*(1+$J$43)</f>
+        <v>81.846118200000035</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>44.827813800000015</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9802</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9802</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9802</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31820000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B16*(1+$J$43)</f>
+        <v>74.405562000000032</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>49.808682000000019</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6619999999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6619999999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6619999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25199999999999978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B17*(1+$J$43)</f>
+        <v>67.641420000000025</v>
+      </c>
+      <c r="C16" s="2">
+        <f>C17</f>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D16" s="2">
+        <f>D17*0.9</f>
+        <v>55.342980000000018</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>4.41</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="4"/>
+        <v>4.41</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>4.41</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36000000000000032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B17" s="2">
+        <f>B18*(1+$J$43)</f>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="C17" s="2">
+        <f>C18*(1+$J$43)</f>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="D17" s="2">
+        <f>D18*(1+$J$43)</f>
+        <v>61.492200000000018</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>4.05</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>4.05</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="4"/>
+        <v>4.05</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61999999999999966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B19*(1+$J$43)</f>
+        <v>55.902000000000015</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C19*(1+$J$43)</f>
+        <v>55.902000000000015</v>
+      </c>
+      <c r="D18" s="2">
+        <f>D19*(1+$J$43)</f>
+        <v>55.902000000000015</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>3.43</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="4"/>
+        <v>3.43</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>3.43</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B20*(1+$J$43)</f>
+        <v>50.820000000000007</v>
+      </c>
+      <c r="C19" s="2">
+        <f>C20*(1+$J$43)</f>
+        <v>50.820000000000007</v>
+      </c>
+      <c r="D19" s="2">
+        <f>D20*(1+$J$43)</f>
+        <v>50.820000000000007</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.18</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19:H34" si="5">SUM(C24:C37)*0.01</f>
+        <v>3.18</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="5"/>
+        <v>3.18</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B20" s="2">
+        <f>B21*(1+$J$43)</f>
+        <v>46.2</v>
+      </c>
+      <c r="C20" s="2">
+        <f>C21*(1+$J$43)</f>
+        <v>46.2</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D21*(1+$J$43)</f>
+        <v>46.2</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="5"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="5"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B21">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>2.61</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="5"/>
+        <v>2.61</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="5"/>
+        <v>2.61</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.70999999999999974</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" ref="J21:J22" si="6">(B21-B22)/B22</f>
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2">
+        <v>366</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6785714285714286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2">
+        <v>336</v>
+      </c>
+      <c r="F23" s="2">
+        <f>SUM(B28:B41)*0.01</f>
+        <v>1.6</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="J23" s="3">
+        <f>(B23-B24)/B24</f>
+        <v>-0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B24">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2">
+        <v>291</v>
+      </c>
+      <c r="F24" s="2">
+        <f>SUM(B29:B42)*0.01</f>
+        <v>1.25</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <f>(B24-B25)/B25</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2">
+        <v>265</v>
+      </c>
+      <c r="F25" s="2">
+        <f>SUM(B30:B43)*0.01</f>
+        <v>1.27</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="5"/>
+        <v>1.27</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="5"/>
+        <v>1.27</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <f>(B25-B26)/B26</f>
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2">
+        <v>263</v>
+      </c>
+      <c r="F26" s="2">
+        <f>SUM(B31:B44)*0.01</f>
+        <v>1.21</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="5"/>
+        <v>1.21</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="5"/>
+        <v>1.21</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="J26" s="3">
+        <f>(B26-B27)/B27</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2">
+        <v>248</v>
+      </c>
+      <c r="F27" s="2">
+        <f>SUM(B32:B45)*0.01</f>
+        <v>1.03</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="5"/>
+        <v>1.03</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="5"/>
+        <v>1.03</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J27" s="3">
+        <f>(B27-B28)/B28</f>
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2">
+        <v>224</v>
+      </c>
+      <c r="F28" s="2">
+        <f>SUM(B33:B46)*0.01</f>
+        <v>1.01</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="5"/>
+        <v>1.01</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="5"/>
+        <v>1.01</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="J28" s="3">
+        <f>(B28-B29)/B29</f>
+        <v>2.6363636363636362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>203</v>
+      </c>
+      <c r="F29" s="2">
+        <f>SUM(B34:B47)*0.01</f>
+        <v>0.85</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J29" s="3">
+        <f>(B29-B30)/B30</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>188</v>
+      </c>
+      <c r="F30" s="2">
+        <f>SUM(B35:B48)*0.01</f>
+        <v>0.65</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J30" s="3">
+        <f>(B30-B31)/B31</f>
+        <v>-0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2">
+        <v>174</v>
+      </c>
+      <c r="F31" s="2">
+        <f>SUM(B36:B49)*0.01</f>
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J31" s="3">
+        <f>(B31-B32)/B32</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>175</v>
+      </c>
+      <c r="F32" s="2">
+        <f>SUM(B37:B50)*0.01</f>
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="J32" s="3">
+        <f>(B32-B33)/B33</f>
+        <v>-0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2">
+        <v>158</v>
+      </c>
+      <c r="F33" s="2">
+        <f>SUM(B38:B51)*0.01</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J33" s="3">
+        <f>(B33-B34)/B34</f>
+        <v>-9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2">
+        <v>161</v>
+      </c>
+      <c r="F34" s="2">
+        <f>SUM(B39:B52)*0.01</f>
+        <v>0.43</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.43</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.43</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <f>(B34-B35)/B35</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>147</v>
+      </c>
+      <c r="F35" s="2">
+        <f>SUM(B40:B53)*0.01</f>
+        <v>0.43</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" ref="G35:H43" si="7">SUM(C40:C53)*0.01</f>
+        <v>0.43</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.43</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J35" s="3">
+        <f>(B35-B36)/B36</f>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2">
+        <v>145</v>
+      </c>
+      <c r="F36" s="2">
+        <f>SUM(B41:B54)*0.01</f>
+        <v>0.42</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.42</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.42</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="J36" s="3">
+        <f>(B36-B37)/B37</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>145</v>
+      </c>
+      <c r="F37" s="2">
+        <f>SUM(B42:B55)*0.01</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" ref="J37:J41" si="8">(B37-B38)/B38</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>135</v>
+      </c>
+      <c r="F38" s="2">
+        <f>SUM(B43:B56)*0.01</f>
+        <v>0.39</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>130</v>
+      </c>
+      <c r="F39" s="2">
+        <f>SUM(B44:B57)*0.01</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>122</v>
+      </c>
+      <c r="F40" s="2">
+        <f>SUM(B45:B58)*0.01</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>119</v>
+      </c>
+      <c r="F41" s="2">
+        <f>SUM(B46:B59)*0.01</f>
+        <v>0.31</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>112</v>
+      </c>
+      <c r="F42" s="2">
+        <f>SUM(B47:B60)*0.01</f>
+        <v>0.32</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.32</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.32</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2">
+        <v>107</v>
+      </c>
+      <c r="F43" s="2">
+        <f>SUM(B48:B61)*0.01</f>
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>97</v>
+      </c>
+      <c r="F44" s="2">
+        <f>SUM(B49:B62)*0.01</f>
+        <v>0.32</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>96</v>
+      </c>
+      <c r="F45" s="2">
+        <f>SUM(B50:B63)*0.01</f>
+        <v>0.39</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>99</v>
+      </c>
+      <c r="F46" s="2">
+        <f>SUM(B51:B64)*0.01</f>
+        <v>0.38</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>103</v>
+      </c>
+      <c r="F47" s="2">
+        <f>SUM(B52:B65)*0.01</f>
+        <v>0.43</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999962E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>107</v>
+      </c>
+      <c r="F48" s="2">
+        <f>SUM(B53:B66)*0.01</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>100</v>
+      </c>
+      <c r="F49" s="2">
+        <f>SUM(B54:B67)*0.01</f>
+        <v>0.45</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>101</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(B55:B68)*0.01</f>
+        <v>0.43</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>101</v>
+      </c>
+      <c r="F51" s="2">
+        <f>SUM(B56:B69)*0.01</f>
+        <v>0.43</v>
+      </c>
+      <c r="I51" s="2">
+        <f>F51-F52</f>
+        <v>2.9999999999999971E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>103</v>
+      </c>
+      <c r="F52" s="2">
+        <f>SUM(B57:B70)*0.01</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>97</v>
+      </c>
+      <c r="F53" s="2">
+        <f>SUM(B58:B71)*0.01</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54" s="2">
+        <f>SUM(B59:B72)*0.01</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>98</v>
+      </c>
+      <c r="F55" s="2">
+        <f>SUM(B60:B73)*0.01</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>90</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" ref="F56:F119" si="9">SUM(B61:B74)*0.01</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="9"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>88</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="9"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>84</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>80</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="9"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>78</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="9"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>78</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="9"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>77</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>75</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="9"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>67</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>68</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="9"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>84</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="9"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>62</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="9"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>55</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>54</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="9"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>49</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="9"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>47</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>44</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="9"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>42</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="9"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>41</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>39</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>36</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>28</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>29</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>28</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>28</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>28</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="9"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="9"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="9"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>31</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>27</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>24</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>23</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>23</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>23</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>23</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>21</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="9"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>19</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="9"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>23</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>19</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>21</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="9"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="9"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>22</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="9"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>25</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="9"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>25</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="9"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>24</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="9"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>22</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>24</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>25</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>25</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>25</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>23</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>21</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>19</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>16</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="9"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>18</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="9"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="9"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>15</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" ref="F120:F183" si="10">SUM(B125:B138)*0.01</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>16</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>15</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>16</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>17</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>15</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>18</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>18</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>16</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>14</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>11</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>9</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>9</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>9</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>12</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>8</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>7</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>7</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>9</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>6</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>8</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>9</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>10</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>10</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>8</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>7</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>11</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>15</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>11</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>9</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>13</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>17</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>19</v>
+      </c>
+      <c r="F169" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>17</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>17</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>17</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>20</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>22</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>21</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>26</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>29</v>
+      </c>
+      <c r="F177" s="2">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>27</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>23</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>25</v>
+      </c>
+      <c r="F180" s="2">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>30</v>
+      </c>
+      <c r="F181" s="2">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>32</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>32</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>31</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" ref="F184:F247" si="11">SUM(B189:B202)*0.01</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>29</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>28</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>31</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>32</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>37</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>39</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>45</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>48</v>
+      </c>
+      <c r="F192" s="2">
+        <f t="shared" si="11"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>50</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="11"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>47</v>
+      </c>
+      <c r="F194" s="2">
+        <f t="shared" si="11"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>54</v>
+      </c>
+      <c r="F195" s="2">
+        <f t="shared" si="11"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>55</v>
+      </c>
+      <c r="F196" s="2">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>59</v>
+      </c>
+      <c r="F197" s="2">
+        <f t="shared" si="11"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>68</v>
+      </c>
+      <c r="F198" s="2">
+        <f t="shared" si="11"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>72</v>
+      </c>
+      <c r="F199" s="2">
+        <f t="shared" si="11"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>79</v>
+      </c>
+      <c r="F200" s="2">
+        <f t="shared" si="11"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>81</v>
+      </c>
+      <c r="F201" s="2">
+        <f t="shared" si="11"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>92</v>
+      </c>
+      <c r="F202" s="2">
+        <f t="shared" si="11"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>97</v>
+      </c>
+      <c r="F203" s="2">
+        <f t="shared" si="11"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>104</v>
+      </c>
+      <c r="F204" s="2">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>111</v>
+      </c>
+      <c r="F205" s="2">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>114</v>
+      </c>
+      <c r="F206" s="2">
+        <f t="shared" si="11"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>114</v>
+      </c>
+      <c r="F207" s="2">
+        <f t="shared" si="11"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>124</v>
+      </c>
+      <c r="F208" s="2">
+        <f t="shared" si="11"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>128</v>
+      </c>
+      <c r="F209" s="2">
+        <f t="shared" si="11"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>131</v>
+      </c>
+      <c r="F210" s="2">
+        <f t="shared" si="11"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>136</v>
+      </c>
+      <c r="F211" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>140</v>
+      </c>
+      <c r="F212" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>145</v>
+      </c>
+      <c r="F213" s="2">
+        <f t="shared" si="11"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>148</v>
+      </c>
+      <c r="F214" s="2">
+        <f t="shared" si="11"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215">
+        <v>156</v>
+      </c>
+      <c r="F215" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>169</v>
+      </c>
+      <c r="F216" s="2">
+        <f t="shared" si="11"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>176</v>
+      </c>
+      <c r="F217" s="2">
+        <f t="shared" si="11"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>196</v>
+      </c>
+      <c r="F218" s="2">
+        <f t="shared" si="11"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>194</v>
+      </c>
+      <c r="F219" s="2">
+        <f t="shared" si="11"/>
+        <v>0.69000000000000006</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>204</v>
+      </c>
+      <c r="F220" s="2">
+        <f t="shared" si="11"/>
+        <v>0.83000000000000007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>208</v>
+      </c>
+      <c r="F221" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>227</v>
+      </c>
+      <c r="F222" s="2">
+        <f t="shared" si="11"/>
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>238</v>
+      </c>
+      <c r="F223" s="2">
+        <f t="shared" si="11"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>232</v>
+      </c>
+      <c r="F224" s="2">
+        <f t="shared" si="11"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="E225">
+        <v>243</v>
+      </c>
+      <c r="F225" s="2">
+        <f t="shared" si="11"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="E226">
+        <v>239</v>
+      </c>
+      <c r="F226" s="2">
+        <f t="shared" si="11"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>243</v>
+      </c>
+      <c r="F227" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="E228">
+        <v>246</v>
+      </c>
+      <c r="F228" s="2">
+        <f t="shared" si="11"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>261</v>
+      </c>
+      <c r="F229" s="2">
+        <f t="shared" si="11"/>
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230">
+        <v>5</v>
+      </c>
+      <c r="E230">
+        <v>266</v>
+      </c>
+      <c r="F230" s="2">
+        <f t="shared" si="11"/>
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <v>267</v>
+      </c>
+      <c r="F231" s="2">
+        <f t="shared" si="11"/>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>243</v>
+      </c>
+      <c r="F232" s="2">
+        <f t="shared" si="11"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>250</v>
+      </c>
+      <c r="F233" s="2">
+        <f t="shared" si="11"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B234">
+        <v>9</v>
+      </c>
+      <c r="C234">
+        <v>9</v>
+      </c>
+      <c r="D234">
+        <v>9</v>
+      </c>
+      <c r="E234">
+        <v>244</v>
+      </c>
+      <c r="F234" s="2">
+        <f t="shared" si="11"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B235">
+        <v>10</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+      <c r="D235">
+        <v>10</v>
+      </c>
+      <c r="E235">
+        <v>245</v>
+      </c>
+      <c r="F235" s="2">
+        <f t="shared" si="11"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B236">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+      <c r="D236">
+        <v>7</v>
+      </c>
+      <c r="E236">
+        <v>245</v>
+      </c>
+      <c r="F236" s="2">
+        <f t="shared" si="11"/>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B237">
+        <v>12</v>
+      </c>
+      <c r="C237">
+        <v>12</v>
+      </c>
+      <c r="D237">
+        <v>12</v>
+      </c>
+      <c r="E237">
+        <v>227</v>
+      </c>
+      <c r="F237" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8900000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B238">
+        <v>15</v>
+      </c>
+      <c r="C238">
+        <v>15</v>
+      </c>
+      <c r="D238">
+        <v>15</v>
+      </c>
+      <c r="E238">
+        <v>215</v>
+      </c>
+      <c r="F238" s="2">
+        <f t="shared" si="11"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B239">
+        <v>31</v>
+      </c>
+      <c r="C239">
+        <v>31</v>
+      </c>
+      <c r="D239">
+        <v>31</v>
+      </c>
+      <c r="E239">
+        <v>198</v>
+      </c>
+      <c r="F239" s="2">
+        <f t="shared" si="11"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B240">
+        <v>20</v>
+      </c>
+      <c r="C240">
+        <v>20</v>
+      </c>
+      <c r="D240">
+        <v>20</v>
+      </c>
+      <c r="E240">
+        <v>193</v>
+      </c>
+      <c r="F240" s="2">
+        <f t="shared" si="11"/>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B241">
+        <v>20</v>
+      </c>
+      <c r="C241">
+        <v>20</v>
+      </c>
+      <c r="D241">
+        <v>20</v>
+      </c>
+      <c r="E241">
+        <v>187</v>
+      </c>
+      <c r="F241" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B242">
+        <v>13</v>
+      </c>
+      <c r="C242">
+        <v>13</v>
+      </c>
+      <c r="D242">
+        <v>13</v>
+      </c>
+      <c r="E242">
+        <v>135</v>
+      </c>
+      <c r="F242" s="2">
+        <f t="shared" si="11"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B243">
+        <v>24</v>
+      </c>
+      <c r="C243">
+        <v>24</v>
+      </c>
+      <c r="D243">
+        <v>24</v>
+      </c>
+      <c r="E243">
+        <v>110</v>
+      </c>
+      <c r="F243" s="2">
+        <f t="shared" si="11"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B244">
+        <v>11</v>
+      </c>
+      <c r="C244">
+        <v>11</v>
+      </c>
+      <c r="D244">
+        <v>11</v>
+      </c>
+      <c r="E244">
+        <v>96</v>
+      </c>
+      <c r="F244" s="2">
+        <f t="shared" si="11"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B245">
+        <v>28</v>
+      </c>
+      <c r="C245">
+        <v>28</v>
+      </c>
+      <c r="D245">
+        <v>28</v>
+      </c>
+      <c r="E245">
+        <v>26</v>
+      </c>
+      <c r="F245" s="2">
+        <f t="shared" si="11"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B246">
+        <v>14</v>
+      </c>
+      <c r="C246">
+        <v>14</v>
+      </c>
+      <c r="D246">
+        <v>14</v>
+      </c>
+      <c r="E246">
+        <v>17</v>
+      </c>
+      <c r="F246" s="2">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B247">
+        <v>18</v>
+      </c>
+      <c r="C247">
+        <v>18</v>
+      </c>
+      <c r="D247">
+        <v>18</v>
+      </c>
+      <c r="E247">
+        <v>16</v>
+      </c>
+      <c r="F247" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248">
+        <v>4</v>
+      </c>
+      <c r="E248">
+        <v>13</v>
+      </c>
+      <c r="F248" s="2">
+        <f t="shared" ref="F248:F256" si="12">SUM(B253:B266)*0.01</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B249">
+        <v>29</v>
+      </c>
+      <c r="C249">
+        <v>29</v>
+      </c>
+      <c r="D249">
+        <v>29</v>
+      </c>
+      <c r="E249">
+        <v>13</v>
+      </c>
+      <c r="F249" s="2">
+        <f t="shared" si="12"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B250">
+        <v>15</v>
+      </c>
+      <c r="C250">
+        <v>15</v>
+      </c>
+      <c r="D250">
+        <v>15</v>
+      </c>
+      <c r="E250">
+        <v>13</v>
+      </c>
+      <c r="F250" s="2">
+        <f t="shared" si="12"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B251">
+        <v>16</v>
+      </c>
+      <c r="C251">
+        <v>16</v>
+      </c>
+      <c r="D251">
+        <v>16</v>
+      </c>
+      <c r="E251">
+        <v>12</v>
+      </c>
+      <c r="F251" s="2">
+        <f t="shared" si="12"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B252">
+        <v>11</v>
+      </c>
+      <c r="C252">
+        <v>11</v>
+      </c>
+      <c r="D252">
+        <v>11</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253" s="2">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>3</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" s="2">
+        <f t="shared" si="12"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" s="2">
+        <f t="shared" si="12"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B256">
+        <v>6</v>
+      </c>
+      <c r="C256">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>6</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" s="2">
+        <f t="shared" si="12"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>